--- a/Task3_Definition_Modeling_with_Metaphorically_Used_Words/annotation/data/bart-base_annset_gruk.xlsx
+++ b/Task3_Definition_Modeling_with_Metaphorically_Used_Words/annotation/data/bart-base_annset_gruk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gruks\OneDrive\Documents\GitHub\metaphors_nlu_project\Task3_Definition_Modeling_with_Metaphorically_Used_Words\annotation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F5370E5F-2A9B-43ED-9E9A-76134665AD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{88F8712D-91CE-4563-8B73-168D0E43EBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{EC396200-CAC7-48BE-8A66-19CFF3E37C2D}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{EC396200-CAC7-48BE-8A66-19CFF3E37C2D}"/>
   </bookViews>
   <sheets>
     <sheet name="bart-base_annset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="351">
   <si>
     <t>word</t>
   </si>
@@ -1935,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3A5443-121D-4405-BCF3-8396A8E77938}">
   <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="67" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="82" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3975,6 +3975,9 @@
       <c r="C102" t="s">
         <v>225</v>
       </c>
+      <c r="D102" t="s">
+        <v>349</v>
+      </c>
       <c r="E102" t="s">
         <v>109</v>
       </c>
@@ -3992,6 +3995,9 @@
       <c r="C103" t="s">
         <v>227</v>
       </c>
+      <c r="D103" t="s">
+        <v>349</v>
+      </c>
       <c r="E103" t="s">
         <v>228</v>
       </c>
@@ -4009,6 +4015,9 @@
       <c r="C104" t="s">
         <v>231</v>
       </c>
+      <c r="D104" t="s">
+        <v>348</v>
+      </c>
       <c r="E104" t="s">
         <v>232</v>
       </c>
@@ -4026,6 +4035,9 @@
       <c r="C105" t="s">
         <v>234</v>
       </c>
+      <c r="D105" t="s">
+        <v>349</v>
+      </c>
       <c r="E105" t="s">
         <v>235</v>
       </c>
@@ -4043,6 +4055,9 @@
       <c r="C106" t="s">
         <v>236</v>
       </c>
+      <c r="D106" t="s">
+        <v>350</v>
+      </c>
       <c r="E106" t="s">
         <v>189</v>
       </c>
@@ -4060,6 +4075,9 @@
       <c r="C107" t="s">
         <v>237</v>
       </c>
+      <c r="D107" t="s">
+        <v>348</v>
+      </c>
       <c r="E107" t="s">
         <v>75</v>
       </c>
@@ -4077,6 +4095,9 @@
       <c r="C108" t="s">
         <v>238</v>
       </c>
+      <c r="D108" t="s">
+        <v>348</v>
+      </c>
       <c r="E108" t="s">
         <v>154</v>
       </c>
@@ -4094,6 +4115,9 @@
       <c r="C109" t="s">
         <v>239</v>
       </c>
+      <c r="D109" t="s">
+        <v>349</v>
+      </c>
       <c r="E109" t="s">
         <v>30</v>
       </c>
@@ -4111,6 +4135,9 @@
       <c r="C110" t="s">
         <v>240</v>
       </c>
+      <c r="D110" t="s">
+        <v>350</v>
+      </c>
       <c r="E110" t="s">
         <v>148</v>
       </c>
@@ -4128,6 +4155,9 @@
       <c r="C111" t="s">
         <v>241</v>
       </c>
+      <c r="D111" t="s">
+        <v>349</v>
+      </c>
       <c r="E111" t="s">
         <v>178</v>
       </c>
@@ -4145,6 +4175,9 @@
       <c r="C112" t="s">
         <v>242</v>
       </c>
+      <c r="D112" t="s">
+        <v>348</v>
+      </c>
       <c r="E112" t="s">
         <v>74</v>
       </c>
@@ -4162,6 +4195,9 @@
       <c r="C113" t="s">
         <v>244</v>
       </c>
+      <c r="D113" t="s">
+        <v>349</v>
+      </c>
       <c r="E113" t="s">
         <v>245</v>
       </c>
@@ -4179,6 +4215,9 @@
       <c r="C114" t="s">
         <v>137</v>
       </c>
+      <c r="D114" t="s">
+        <v>348</v>
+      </c>
       <c r="E114" t="s">
         <v>39</v>
       </c>
@@ -4196,6 +4235,9 @@
       <c r="C115" t="s">
         <v>247</v>
       </c>
+      <c r="D115" t="s">
+        <v>349</v>
+      </c>
       <c r="E115" t="s">
         <v>248</v>
       </c>
@@ -4213,6 +4255,9 @@
       <c r="C116" t="s">
         <v>250</v>
       </c>
+      <c r="D116" t="s">
+        <v>350</v>
+      </c>
       <c r="E116" t="s">
         <v>47</v>
       </c>
@@ -4230,6 +4275,9 @@
       <c r="C117" t="s">
         <v>251</v>
       </c>
+      <c r="D117" t="s">
+        <v>348</v>
+      </c>
       <c r="E117" t="s">
         <v>75</v>
       </c>
@@ -4247,6 +4295,9 @@
       <c r="C118" t="s">
         <v>253</v>
       </c>
+      <c r="D118" t="s">
+        <v>349</v>
+      </c>
       <c r="E118" t="s">
         <v>254</v>
       </c>
@@ -4264,6 +4315,9 @@
       <c r="C119" t="s">
         <v>256</v>
       </c>
+      <c r="D119" t="s">
+        <v>348</v>
+      </c>
       <c r="E119" t="s">
         <v>257</v>
       </c>
@@ -4281,6 +4335,9 @@
       <c r="C120" t="s">
         <v>258</v>
       </c>
+      <c r="D120" t="s">
+        <v>349</v>
+      </c>
       <c r="E120" t="s">
         <v>46</v>
       </c>
@@ -4298,6 +4355,9 @@
       <c r="C121" t="s">
         <v>259</v>
       </c>
+      <c r="D121" t="s">
+        <v>348</v>
+      </c>
       <c r="E121" t="s">
         <v>260</v>
       </c>
@@ -4315,6 +4375,9 @@
       <c r="C122" t="s">
         <v>262</v>
       </c>
+      <c r="D122" t="s">
+        <v>349</v>
+      </c>
       <c r="E122" t="s">
         <v>57</v>
       </c>
@@ -4332,6 +4395,9 @@
       <c r="C123" t="s">
         <v>263</v>
       </c>
+      <c r="D123" t="s">
+        <v>348</v>
+      </c>
       <c r="E123" t="s">
         <v>249</v>
       </c>
@@ -4349,6 +4415,9 @@
       <c r="C124" t="s">
         <v>264</v>
       </c>
+      <c r="D124" t="s">
+        <v>349</v>
+      </c>
       <c r="E124" t="s">
         <v>265</v>
       </c>
@@ -4366,6 +4435,9 @@
       <c r="C125" t="s">
         <v>266</v>
       </c>
+      <c r="D125" t="s">
+        <v>348</v>
+      </c>
       <c r="E125" t="s">
         <v>53</v>
       </c>
@@ -4383,6 +4455,9 @@
       <c r="C126" t="s">
         <v>268</v>
       </c>
+      <c r="D126" t="s">
+        <v>349</v>
+      </c>
       <c r="E126" t="s">
         <v>269</v>
       </c>
@@ -4400,6 +4475,9 @@
       <c r="C127" t="s">
         <v>51</v>
       </c>
+      <c r="D127" t="s">
+        <v>349</v>
+      </c>
       <c r="E127" t="s">
         <v>270</v>
       </c>
@@ -4417,6 +4495,9 @@
       <c r="C128" t="s">
         <v>271</v>
       </c>
+      <c r="D128" t="s">
+        <v>348</v>
+      </c>
       <c r="E128" t="s">
         <v>12</v>
       </c>
@@ -4434,6 +4515,9 @@
       <c r="C129" t="s">
         <v>51</v>
       </c>
+      <c r="D129" t="s">
+        <v>348</v>
+      </c>
       <c r="E129" t="s">
         <v>53</v>
       </c>
@@ -4451,6 +4535,9 @@
       <c r="C130" t="s">
         <v>272</v>
       </c>
+      <c r="D130" t="s">
+        <v>348</v>
+      </c>
       <c r="E130" t="s">
         <v>15</v>
       </c>
@@ -4468,6 +4555,9 @@
       <c r="C131" t="s">
         <v>273</v>
       </c>
+      <c r="D131" t="s">
+        <v>348</v>
+      </c>
       <c r="E131" t="s">
         <v>15</v>
       </c>
@@ -4485,6 +4575,9 @@
       <c r="C132" t="s">
         <v>274</v>
       </c>
+      <c r="D132" t="s">
+        <v>350</v>
+      </c>
       <c r="E132" t="s">
         <v>246</v>
       </c>
@@ -4502,6 +4595,9 @@
       <c r="C133" t="s">
         <v>275</v>
       </c>
+      <c r="D133" t="s">
+        <v>348</v>
+      </c>
       <c r="E133" t="s">
         <v>31</v>
       </c>
@@ -4519,6 +4615,9 @@
       <c r="C134" t="s">
         <v>276</v>
       </c>
+      <c r="D134" t="s">
+        <v>350</v>
+      </c>
       <c r="E134" t="s">
         <v>8</v>
       </c>
@@ -4536,6 +4635,9 @@
       <c r="C135" t="s">
         <v>277</v>
       </c>
+      <c r="D135" t="s">
+        <v>350</v>
+      </c>
       <c r="E135" t="s">
         <v>278</v>
       </c>
@@ -4553,6 +4655,9 @@
       <c r="C136" t="s">
         <v>279</v>
       </c>
+      <c r="D136" t="s">
+        <v>348</v>
+      </c>
       <c r="E136" t="s">
         <v>280</v>
       </c>
@@ -4570,6 +4675,9 @@
       <c r="C137" t="s">
         <v>281</v>
       </c>
+      <c r="D137" t="s">
+        <v>348</v>
+      </c>
       <c r="E137" t="s">
         <v>282</v>
       </c>
@@ -4587,6 +4695,9 @@
       <c r="C138" t="s">
         <v>283</v>
       </c>
+      <c r="D138" t="s">
+        <v>349</v>
+      </c>
       <c r="E138" t="s">
         <v>26</v>
       </c>
@@ -4604,6 +4715,9 @@
       <c r="C139" t="s">
         <v>284</v>
       </c>
+      <c r="D139" t="s">
+        <v>350</v>
+      </c>
       <c r="E139" t="s">
         <v>61</v>
       </c>
@@ -4621,6 +4735,9 @@
       <c r="C140" t="s">
         <v>285</v>
       </c>
+      <c r="D140" t="s">
+        <v>350</v>
+      </c>
       <c r="E140" t="s">
         <v>278</v>
       </c>
@@ -4638,6 +4755,9 @@
       <c r="C141" t="s">
         <v>286</v>
       </c>
+      <c r="D141" t="s">
+        <v>349</v>
+      </c>
       <c r="E141" t="s">
         <v>121</v>
       </c>
@@ -4655,6 +4775,9 @@
       <c r="C142" t="s">
         <v>287</v>
       </c>
+      <c r="D142" t="s">
+        <v>349</v>
+      </c>
       <c r="E142" t="s">
         <v>205</v>
       </c>
@@ -4672,6 +4795,9 @@
       <c r="C143" t="s">
         <v>288</v>
       </c>
+      <c r="D143" t="s">
+        <v>349</v>
+      </c>
       <c r="E143" t="s">
         <v>289</v>
       </c>
@@ -4689,6 +4815,9 @@
       <c r="C144" t="s">
         <v>290</v>
       </c>
+      <c r="D144" t="s">
+        <v>348</v>
+      </c>
       <c r="E144" t="s">
         <v>164</v>
       </c>
@@ -4706,6 +4835,9 @@
       <c r="C145" t="s">
         <v>291</v>
       </c>
+      <c r="D145" t="s">
+        <v>349</v>
+      </c>
       <c r="E145" t="s">
         <v>257</v>
       </c>
@@ -4723,6 +4855,9 @@
       <c r="C146" t="s">
         <v>293</v>
       </c>
+      <c r="D146" t="s">
+        <v>350</v>
+      </c>
       <c r="E146" t="s">
         <v>294</v>
       </c>
@@ -4740,6 +4875,9 @@
       <c r="C147" t="s">
         <v>188</v>
       </c>
+      <c r="D147" t="s">
+        <v>350</v>
+      </c>
       <c r="E147" t="s">
         <v>189</v>
       </c>
@@ -4757,6 +4895,9 @@
       <c r="C148" t="s">
         <v>295</v>
       </c>
+      <c r="D148" t="s">
+        <v>349</v>
+      </c>
       <c r="E148" t="s">
         <v>43</v>
       </c>
@@ -4774,6 +4915,9 @@
       <c r="C149" t="s">
         <v>296</v>
       </c>
+      <c r="D149" t="s">
+        <v>348</v>
+      </c>
       <c r="E149" t="s">
         <v>297</v>
       </c>
@@ -4791,6 +4935,9 @@
       <c r="C150" t="s">
         <v>298</v>
       </c>
+      <c r="D150" t="s">
+        <v>349</v>
+      </c>
       <c r="E150" t="s">
         <v>117</v>
       </c>
@@ -4808,6 +4955,9 @@
       <c r="C151" t="s">
         <v>299</v>
       </c>
+      <c r="D151" t="s">
+        <v>350</v>
+      </c>
       <c r="E151" t="s">
         <v>144</v>
       </c>
@@ -4825,6 +4975,9 @@
       <c r="C152" t="s">
         <v>300</v>
       </c>
+      <c r="D152" t="s">
+        <v>350</v>
+      </c>
       <c r="E152" t="s">
         <v>189</v>
       </c>
@@ -4842,6 +4995,9 @@
       <c r="C153" t="s">
         <v>302</v>
       </c>
+      <c r="D153" t="s">
+        <v>350</v>
+      </c>
       <c r="E153" t="s">
         <v>303</v>
       </c>
@@ -4859,6 +5015,9 @@
       <c r="C154" t="s">
         <v>188</v>
       </c>
+      <c r="D154" t="s">
+        <v>350</v>
+      </c>
       <c r="E154" t="s">
         <v>189</v>
       </c>
@@ -4876,6 +5035,9 @@
       <c r="C155" t="s">
         <v>304</v>
       </c>
+      <c r="D155" t="s">
+        <v>348</v>
+      </c>
       <c r="E155" t="s">
         <v>280</v>
       </c>
@@ -4893,6 +5055,9 @@
       <c r="C156" t="s">
         <v>305</v>
       </c>
+      <c r="D156" t="s">
+        <v>348</v>
+      </c>
       <c r="E156" t="s">
         <v>75</v>
       </c>
@@ -4910,6 +5075,9 @@
       <c r="C157" t="s">
         <v>306</v>
       </c>
+      <c r="D157" t="s">
+        <v>349</v>
+      </c>
       <c r="E157" t="s">
         <v>307</v>
       </c>
@@ -4927,6 +5095,9 @@
       <c r="C158" t="s">
         <v>308</v>
       </c>
+      <c r="D158" t="s">
+        <v>349</v>
+      </c>
       <c r="E158" t="s">
         <v>116</v>
       </c>
@@ -4944,6 +5115,9 @@
       <c r="C159" t="s">
         <v>310</v>
       </c>
+      <c r="D159" t="s">
+        <v>349</v>
+      </c>
       <c r="E159" t="s">
         <v>311</v>
       </c>
@@ -4961,6 +5135,9 @@
       <c r="C160" t="s">
         <v>312</v>
       </c>
+      <c r="D160" t="s">
+        <v>350</v>
+      </c>
       <c r="E160" t="s">
         <v>313</v>
       </c>
@@ -4978,6 +5155,9 @@
       <c r="C161" t="s">
         <v>314</v>
       </c>
+      <c r="D161" t="s">
+        <v>350</v>
+      </c>
       <c r="E161" t="s">
         <v>294</v>
       </c>
@@ -4995,6 +5175,9 @@
       <c r="C162" t="s">
         <v>315</v>
       </c>
+      <c r="D162" t="s">
+        <v>349</v>
+      </c>
       <c r="E162" t="s">
         <v>52</v>
       </c>
@@ -5012,6 +5195,9 @@
       <c r="C163" t="s">
         <v>316</v>
       </c>
+      <c r="D163" t="s">
+        <v>350</v>
+      </c>
       <c r="E163" t="s">
         <v>317</v>
       </c>
@@ -5029,6 +5215,9 @@
       <c r="C164" t="s">
         <v>318</v>
       </c>
+      <c r="D164" t="s">
+        <v>348</v>
+      </c>
       <c r="E164" t="s">
         <v>160</v>
       </c>
@@ -5046,6 +5235,9 @@
       <c r="C165" t="s">
         <v>319</v>
       </c>
+      <c r="D165" t="s">
+        <v>349</v>
+      </c>
       <c r="E165" t="s">
         <v>57</v>
       </c>
@@ -5063,6 +5255,9 @@
       <c r="C166" t="s">
         <v>320</v>
       </c>
+      <c r="D166" t="s">
+        <v>349</v>
+      </c>
       <c r="E166" t="s">
         <v>43</v>
       </c>
@@ -5080,6 +5275,9 @@
       <c r="C167" t="s">
         <v>321</v>
       </c>
+      <c r="D167" t="s">
+        <v>349</v>
+      </c>
       <c r="E167" t="s">
         <v>322</v>
       </c>
@@ -5097,6 +5295,9 @@
       <c r="C168" t="s">
         <v>325</v>
       </c>
+      <c r="D168" t="s">
+        <v>349</v>
+      </c>
       <c r="E168" t="s">
         <v>326</v>
       </c>
@@ -5114,6 +5315,9 @@
       <c r="C169" t="s">
         <v>328</v>
       </c>
+      <c r="D169" t="s">
+        <v>348</v>
+      </c>
       <c r="E169" t="s">
         <v>131</v>
       </c>
@@ -5131,6 +5335,9 @@
       <c r="C170" t="s">
         <v>329</v>
       </c>
+      <c r="D170" t="s">
+        <v>349</v>
+      </c>
       <c r="E170" t="s">
         <v>53</v>
       </c>
@@ -5148,6 +5355,9 @@
       <c r="C171" t="s">
         <v>330</v>
       </c>
+      <c r="D171" t="s">
+        <v>349</v>
+      </c>
       <c r="E171" t="s">
         <v>49</v>
       </c>
@@ -5165,6 +5375,9 @@
       <c r="C172" t="s">
         <v>331</v>
       </c>
+      <c r="D172" t="s">
+        <v>348</v>
+      </c>
       <c r="E172" t="s">
         <v>228</v>
       </c>
@@ -5182,6 +5395,9 @@
       <c r="C173" t="s">
         <v>332</v>
       </c>
+      <c r="D173" t="s">
+        <v>349</v>
+      </c>
       <c r="E173" t="s">
         <v>30</v>
       </c>
@@ -5199,6 +5415,9 @@
       <c r="C174" t="s">
         <v>18</v>
       </c>
+      <c r="D174" t="s">
+        <v>349</v>
+      </c>
       <c r="E174" t="s">
         <v>19</v>
       </c>
@@ -5216,6 +5435,9 @@
       <c r="C175" t="s">
         <v>334</v>
       </c>
+      <c r="D175" t="s">
+        <v>348</v>
+      </c>
       <c r="E175" t="s">
         <v>31</v>
       </c>
@@ -5233,6 +5455,9 @@
       <c r="C176" t="s">
         <v>335</v>
       </c>
+      <c r="D176" t="s">
+        <v>350</v>
+      </c>
       <c r="E176" t="s">
         <v>245</v>
       </c>
@@ -5250,6 +5475,9 @@
       <c r="C177" t="s">
         <v>336</v>
       </c>
+      <c r="D177" t="s">
+        <v>350</v>
+      </c>
       <c r="E177" t="s">
         <v>34</v>
       </c>
@@ -5267,6 +5495,9 @@
       <c r="C178" t="s">
         <v>337</v>
       </c>
+      <c r="D178" t="s">
+        <v>348</v>
+      </c>
       <c r="E178" t="s">
         <v>228</v>
       </c>
@@ -5284,6 +5515,9 @@
       <c r="C179" t="s">
         <v>338</v>
       </c>
+      <c r="D179" t="s">
+        <v>349</v>
+      </c>
       <c r="E179" t="s">
         <v>205</v>
       </c>
@@ -5301,6 +5535,9 @@
       <c r="C180" t="s">
         <v>339</v>
       </c>
+      <c r="D180" t="s">
+        <v>348</v>
+      </c>
       <c r="E180" t="s">
         <v>161</v>
       </c>
@@ -5318,6 +5555,9 @@
       <c r="C181" t="s">
         <v>340</v>
       </c>
+      <c r="D181" t="s">
+        <v>348</v>
+      </c>
       <c r="E181" t="s">
         <v>297</v>
       </c>
@@ -5335,6 +5575,9 @@
       <c r="C182" t="s">
         <v>341</v>
       </c>
+      <c r="D182" t="s">
+        <v>349</v>
+      </c>
       <c r="E182" t="s">
         <v>260</v>
       </c>
@@ -5352,6 +5595,9 @@
       <c r="C183" t="s">
         <v>343</v>
       </c>
+      <c r="D183" t="s">
+        <v>349</v>
+      </c>
       <c r="E183" t="s">
         <v>344</v>
       </c>
@@ -5369,6 +5615,9 @@
       <c r="C184" t="s">
         <v>346</v>
       </c>
+      <c r="D184" t="s">
+        <v>350</v>
+      </c>
       <c r="E184" t="s">
         <v>249</v>
       </c>
@@ -5385,6 +5634,9 @@
       </c>
       <c r="C185" t="s">
         <v>347</v>
+      </c>
+      <c r="D185" t="s">
+        <v>349</v>
       </c>
       <c r="E185" t="s">
         <v>161</v>
